--- a/Assets/Air Islands/Dialogue/AirIslandCoversation.xlsx
+++ b/Assets/Air Islands/Dialogue/AirIslandCoversation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Air Islands\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1CDFDF-1E89-4BA6-93BB-1353AFC51D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4028C-AB90-428A-B3AC-1909E9A4045F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Actor</t>
   </si>
@@ -111,25 +111,705 @@
     <t>No more hide and seek, child.</t>
   </si>
   <si>
+    <t>Lift up thy rod, and stretch forth thy hand—part this &lt;color=#ffc800&gt;sea of void&lt;/color&gt;, if thou wilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#ffc800&gt;The Monolith&lt;/color&gt; broken into pieces. Follow the &lt;color=#ffc800&gt;revelation&lt;/color&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dawn of &lt;color=#ffc800&gt;mortality&lt;/color&gt;. &lt;color=#ffc800&gt;Nature&lt;/color&gt; is the end, or the beginning, where all works of any alleged &lt;color=#ffc800&gt;natural&lt;/color&gt; are defied. </t>
+  </si>
+  <si>
+    <t>Finally! After all those twists and turns, thou hast reached the Terra Firma!</t>
+  </si>
+  <si>
+    <t>Stand. Stand in &lt;color=#ffc800&gt;awe&lt;/color&gt; of the porous boundary 'twixt &lt;color=#ffc800&gt;mortals&lt;/color&gt; and &lt;color=#ffc800&gt;fauna&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>此等&lt;color=#ffc800&gt;浮尘&lt;/color&gt;弃屑，好一番另样的洞天府衙！</t>
+  </si>
+  <si>
+    <t>一如丛簇的&lt;color=#ffc800&gt;兵戈&lt;/color&gt;遗物，甚是奇异。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;兽息&lt;/color&gt;之回响…似是精疲力竭之芸芸&lt;color=#ffc800&gt;凡夫&lt;/color&gt;，酣睡于百门火炮之间。</t>
+  </si>
+  <si>
+    <r>
+      <t>高举法杖，展开双手！遂尔心愿，即刻将此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚空之海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一分为二！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>亘古的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石碑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎裂成碣石断垣，且随箴言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>独属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凡人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之曙光，天道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衍生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万物，亦为万物之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。故</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未必不如。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幻梦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相融，真是醉人。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>负芒披苇，破浪斩风，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铸造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独属于尔的常世之路！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用心提防那些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四足动物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，和那些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飞鸟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元祖。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不仅要小心昼行的躁动之物，更要注意那潜伏跟踪的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草木之灵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>莫要如猎物般轻举妄动！</t>
+  </si>
+  <si>
+    <r>
+      <t>当光阴之矢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命定方位，适时而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>也留意尔等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>此去无法回头，但也不必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右为难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>倒是蹑景追飞，只不过片刻功夫，便以斩破磨难重回地载。</t>
+  </si>
+  <si>
+    <t>尔莫要再遮掩。</t>
+  </si>
+  <si>
+    <t>正襟昂首！&lt;color=#ffc800&gt;敬仰&lt;/color&gt;，审视这&lt;color=#ffc800&gt;人&lt;/color&gt;与&lt;color=#ffc800&gt;兽&lt;/color&gt;之间的毫厘之别。</t>
+  </si>
+  <si>
+    <t>沐浴在&lt;color=#ffc800&gt;恩典&lt;/color&gt;之下，幸而未被&lt;color=#ffc800&gt;犬牙&lt;/color&gt;撕扯为万段碎尸…</t>
+  </si>
+  <si>
     <t>In the state of Grace! The &lt;color=#ffc800&gt;Blessing&lt;/color&gt; hath &lt;color=#ffc800&gt;chosen&lt;/color&gt; thee…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>…or thou wouldst have been torn apart by the gnashing of &lt;color=#ffc800&gt;canine teeth&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Lift up thy rod, and stretch forth thy hand—part this &lt;color=#ffc800&gt;sea of void&lt;/color&gt;, if thou wilt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;color=#ffc800&gt;The Monolith&lt;/color&gt; broken into pieces. Follow the &lt;color=#ffc800&gt;revelation&lt;/color&gt;. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The dawn of &lt;color=#ffc800&gt;mortality&lt;/color&gt;. &lt;color=#ffc800&gt;Nature&lt;/color&gt; is the end, or the beginning, where all works of any alleged &lt;color=#ffc800&gt;natural&lt;/color&gt; are defied. </t>
-  </si>
-  <si>
-    <t>Finally! After all those twists and turns, thou hast reached the Terra Firma!</t>
-  </si>
-  <si>
-    <t>Stand. Stand in &lt;color=#ffc800&gt;awe&lt;/color&gt; of the porous boundary 'twixt &lt;color=#ffc800&gt;mortals&lt;/color&gt; and &lt;color=#ffc800&gt;fauna&lt;/color&gt;!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sentence5_en</t>
@@ -140,12 +820,72 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sentence6_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence6_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感恩，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祝福</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;&lt;color=#ffc800&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了尔。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -570,7 +1310,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -599,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -626,16 +1366,10 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
@@ -643,29 +1377,37 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -673,60 +1415,80 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="I5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4" t="s">
-        <v>31</v>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J6" s="3"/>
       <c r="N6" s="3"/>
@@ -734,29 +1496,37 @@
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="I7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="I8" t="s">
+      <c r="G8" t="s">
         <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="I9" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="J10" s="3"/>
     </row>
